--- a/plot/Tmp673.15K_StrRt0.0001_RD/Tmp673.15K_StrRt0.0001_RD_SH.xlsx
+++ b/plot/Tmp673.15K_StrRt0.0001_RD/Tmp673.15K_StrRt0.0001_RD_SH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meian\Desktop\Comp Eng Project\coe-final-project\coe-final-project\plot\Tmp673.15K_StrRt0.0001_RD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55D2F8ED-37D3-42E2-B178-EA77F603CC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF027AF7-1021-4090-9993-1E1A1BD100B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="14290" windowWidth="25820" windowHeight="15500" xr2:uid="{13EB69B6-64FB-41EA-9FFF-8F07A4FB4F16}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{13EB69B6-64FB-41EA-9FFF-8F07A4FB4F16}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Tmp673.15K_StrRt0.0001_RD_SH_D</t>
   </si>
   <si>
     <t>Tmp673.15K_StrRt0.0001_RD_SH_F</t>
+  </si>
+  <si>
+    <t>Tmp673.15K_StrRt0.0001_RD_SH_U</t>
+  </si>
+  <si>
+    <t>Tmp673.15K_StrRt0.0001_RD_SH_L</t>
   </si>
 </sst>
 </file>
@@ -420,23 +426,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D926753-6231-4DF5-9F5A-D872EA8A2909}">
-  <dimension ref="A1:B1779"/>
+  <dimension ref="A1:D1779"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -444,7 +456,7 @@
         <v>0.22154895019531251</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1.3548440765589499E-3</v>
       </c>
@@ -452,7 +464,7 @@
         <v>0.28887857055664062</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2.0096534863114357E-3</v>
       </c>
@@ -460,7 +472,7 @@
         <v>0.31176239013671875</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4.1958494111895561E-3</v>
       </c>
@@ -468,7 +480,7 @@
         <v>0.32971585083007815</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1.9406480714678764E-3</v>
       </c>
@@ -476,7 +488,7 @@
         <v>0.32959683227539061</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4.0690107271075249E-3</v>
       </c>
@@ -484,7 +496,7 @@
         <v>0.3316602478027344</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1.8095774576067924E-3</v>
       </c>
@@ -492,7 +504,7 @@
         <v>0.3308444519042969</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3.8106122519820929E-3</v>
       </c>
@@ -500,7 +512,7 @@
         <v>0.33780703735351564</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1.7673640977591276E-3</v>
       </c>
@@ -508,7 +520,7 @@
         <v>0.3446055908203125</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3.8213401567190886E-3</v>
       </c>
@@ -516,7 +528,7 @@
         <v>0.34504821777343753</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>4.7005349770188332E-3</v>
       </c>
@@ -524,7 +536,7 @@
         <v>0.37032861328125</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>6.0079367831349373E-3</v>
       </c>
@@ -532,7 +544,7 @@
         <v>0.3949103698730469</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>8.0744195729494095E-3</v>
       </c>
@@ -540,7 +552,7 @@
         <v>0.42085906982421878</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>6.0654799453914165E-3</v>
       </c>
@@ -548,7 +560,7 @@
         <v>0.43230859375000003</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>8.1034814938902855E-3</v>
       </c>
